--- a/Fichiers equipe/revue_code_dina.xlsx
+++ b/Fichiers equipe/revue_code_dina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinaa\Documents\Maintenace Logiciel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinaa\Documents\Maintenace Logiciel\5GP-Travail_pratique_1\Fichiers equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC71F65-C343-4DF7-B471-2DB9A6814667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A5468-E006-41D9-9770-EC265D83D3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>PROJET</t>
   </si>
@@ -114,9 +114,6 @@
     <t>La variable temps_actuel est utilisée avant d'être définie</t>
   </si>
   <si>
-    <t>Les noms de variables (banque, k,temps_ms)  ne sont pas significatifs</t>
-  </si>
-  <si>
     <t>Ensemble code</t>
   </si>
   <si>
@@ -129,23 +126,50 @@
     <t>programme_principal peut être divisé en plus petites méthodes</t>
   </si>
   <si>
-    <t>79 + 124</t>
-  </si>
-  <si>
-    <t>Erreur</t>
-  </si>
-  <si>
     <t>Les fonctions effacer_question et effacer_question_affichee ont exactement la même fonctionnalité</t>
   </si>
   <si>
     <t>Il y'a de la duplication dans la méthode afficher et la méthode effacer_question</t>
+  </si>
+  <si>
+    <t>114 + 121</t>
+  </si>
+  <si>
+    <t>Les noms de variables (banque,nombre, temps_ms)  ne sont pas significatifs</t>
+  </si>
+  <si>
+    <t>95 + 104</t>
+  </si>
+  <si>
+    <t>78 + 121</t>
+  </si>
+  <si>
+    <t>La variable title est définie, mais n'est jamais utilisé</t>
+  </si>
+  <si>
+    <t>Il est important de fermer la base de données après avoir terminé de l'utiliser</t>
+  </si>
+  <si>
+    <t>utilisation du franglais (police_title, title)</t>
+  </si>
+  <si>
+    <t>36 + 55</t>
+  </si>
+  <si>
+    <t>Le code doit être formaté</t>
+  </si>
+  <si>
+    <t>Créez une constante "TITRE" pour stocker "Monsieur Tartempion" au lieu de la répéter fréquemment.</t>
+  </si>
+  <si>
+    <t>45 + 50 + 55+ 106 +111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +197,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -243,26 +259,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,16 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.69921875" customWidth="1"/>
     <col min="4" max="4" width="70.3984375" customWidth="1"/>
     <col min="5" max="5" width="15.69921875" customWidth="1"/>
@@ -596,15 +621,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.850000000000001" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -669,7 +694,7 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -682,18 +707,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -703,48 +728,48 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="11">
-        <v>79</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
+      <c r="B13" s="5">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="9">
-        <v>106107114</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="10">
-        <v>165</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -754,14 +779,14 @@
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
-        <v>205</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -771,14 +796,14 @@
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="5">
-        <v>232</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -788,14 +813,14 @@
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="5">
-        <v>232</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
+      <c r="B18" s="4">
+        <v>153</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -805,14 +830,14 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
+      <c r="B19" s="6">
+        <v>205</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -822,14 +847,14 @@
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
+      <c r="B20" s="6">
+        <v>228</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -839,14 +864,14 @@
       <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
+      <c r="B21" s="6">
+        <v>232</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -856,9 +881,15 @@
       <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="6">
+        <v>232</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -867,9 +898,15 @@
       <c r="A23" s="4">
         <v>12</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -878,102 +915,163 @@
       <c r="A24" s="4">
         <v>13</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Fichiers equipe/revue_code_dina.xlsx
+++ b/Fichiers equipe/revue_code_dina.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinaa\Documents\Maintenace Logiciel\5GP-Travail_pratique_1\Fichiers equipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2084278\Documents\5GP-Travail_pratique_1\Fichiers equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A5468-E006-41D9-9770-EC265D83D3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D179533-1A19-40FE-B1BA-899EDA097CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
+    <workbookView xWindow="1350" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,22 +605,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" customWidth="1"/>
-    <col min="4" max="4" width="70.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="18.296875" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.850000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -631,7 +631,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -641,7 +641,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -663,20 +663,20 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -843,24 +843,24 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>9</v>
       </c>
       <c r="B20" s="6">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -868,33 +868,31 @@
         <v>232</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
-        <v>232</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>12</v>
       </c>
@@ -911,7 +909,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>13</v>
       </c>
@@ -928,7 +926,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>14</v>
       </c>
@@ -945,7 +943,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>15</v>
       </c>
@@ -962,7 +960,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -971,7 +969,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10"/>
       <c r="C28" s="4"/>
@@ -980,7 +978,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -989,7 +987,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -998,7 +996,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1007,7 +1005,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1016,7 +1014,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1025,7 +1023,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1034,7 +1032,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1043,7 +1041,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
@@ -1052,7 +1050,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1061,7 +1059,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1070,7 +1068,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" s="9"/>
     </row>
   </sheetData>
